--- a/predict/2023/saved/week14.xlsx
+++ b/predict/2023/saved/week14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="90">
   <si>
     <t>Index</t>
   </si>
@@ -67,7 +67,7 @@
     <t>100.0</t>
   </si>
   <si>
-    <t>39</t>
+    <t>42</t>
   </si>
   <si>
     <t>Washington</t>
@@ -91,7 +91,7 @@
     <t>UNM</t>
   </si>
   <si>
-    <t>13</t>
+    <t>11</t>
   </si>
   <si>
     <t>Liberty</t>
@@ -100,7 +100,7 @@
     <t>LIB</t>
   </si>
   <si>
-    <t>40</t>
+    <t>38</t>
   </si>
   <si>
     <t>3</t>
@@ -118,7 +118,7 @@
     <t>50.0</t>
   </si>
   <si>
-    <t>17</t>
+    <t>20</t>
   </si>
   <si>
     <t>Alabama</t>
@@ -127,7 +127,7 @@
     <t>ALA</t>
   </si>
   <si>
-    <t>16</t>
+    <t>19</t>
   </si>
   <si>
     <t>4</t>
@@ -139,7 +139,7 @@
     <t>MICH</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
     <t>Iowa</t>
@@ -160,7 +160,7 @@
     <t>27.0</t>
   </si>
   <si>
-    <t>23</t>
+    <t>18</t>
   </si>
   <si>
     <t>Florida</t>
@@ -172,7 +172,7 @@
     <t>73.0</t>
   </si>
   <si>
-    <t>31</t>
+    <t>26</t>
   </si>
   <si>
     <t>6</t>
@@ -196,6 +196,9 @@
     <t>87.4</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
@@ -205,7 +208,7 @@
     <t>88.1</t>
   </si>
   <si>
-    <t>25</t>
+    <t>27</t>
   </si>
   <si>
     <t>Tulsa</t>
@@ -217,30 +220,33 @@
     <t>11.9</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Miami OH</t>
+  </si>
+  <si>
+    <t>M-OH</t>
+  </si>
+  <si>
+    <t>26.2</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>TOL</t>
+  </si>
+  <si>
+    <t>73.8</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Miami OH</t>
-  </si>
-  <si>
-    <t>M-OH</t>
-  </si>
-  <si>
-    <t>26.2</t>
-  </si>
-  <si>
-    <t>Toledo</t>
-  </si>
-  <si>
-    <t>TOL</t>
-  </si>
-  <si>
-    <t>73.8</t>
-  </si>
-  <si>
     <t>Boise St</t>
   </si>
   <si>
@@ -265,6 +271,9 @@
     <t>10.9</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>Troy</t>
   </si>
   <si>
@@ -274,7 +283,7 @@
     <t>89.1</t>
   </si>
   <si>
-    <t>27</t>
+    <t>28</t>
   </si>
 </sst>
 </file>
@@ -842,7 +851,7 @@
         <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G7">
         <v>15.097</v>
@@ -857,42 +866,42 @@
         <v>59</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G8">
         <v>-15.603</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -912,7 +921,7 @@
         <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G9">
         <v>7.797</v>
@@ -927,77 +936,77 @@
         <v>74</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G10">
         <v>0.197</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s">
         <v>33</v>
       </c>
       <c r="K10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G11">
         <v>16.597</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
